--- a/Coverage Survey/Benin/bj_sct_lf_2_couverture_202406.xlsx
+++ b/Coverage Survey/Benin/bj_sct_lf_2_couverture_202406.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C2068A-5F03-456C-B8CD-26B66B96AC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CA530C-D2AF-4693-A34A-011072B7613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="173">
   <si>
     <t>type</t>
   </si>
@@ -165,9 +165,6 @@
     <t>end group</t>
   </si>
   <si>
-    <t>c_pzq</t>
-  </si>
-  <si>
     <t>PRAZIQUANTEL (PZQ)</t>
   </si>
   <si>
@@ -535,6 +532,15 @@
   </si>
   <si>
     <t>Commune</t>
+  </si>
+  <si>
+    <t>c_pzq_bj</t>
+  </si>
+  <si>
+    <t>c_arrondissement</t>
+  </si>
+  <si>
+    <t>Arrondissement</t>
   </si>
 </sst>
 </file>
@@ -1007,13 +1013,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1114,10 +1120,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
@@ -1136,10 +1142,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
@@ -1158,10 +1164,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
@@ -1176,11 +1182,19 @@
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -1190,147 +1204,139 @@
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" ht="38.25">
-      <c r="A10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="38.25">
       <c r="A11" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="I11" s="21"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="20" t="s">
-        <v>15</v>
-      </c>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" ht="38.25">
+      <c r="L12" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="18" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="38.25">
       <c r="A14" s="18" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="20"/>
@@ -1338,53 +1344,53 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" s="27" customFormat="1">
-      <c r="A16" s="24" t="s">
+      <c r="A15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" s="27" customFormat="1">
+      <c r="A17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B17" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" ht="25.5">
-      <c r="A17" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
@@ -1395,13 +1401,13 @@
     </row>
     <row r="18" spans="1:12" s="27" customFormat="1" ht="25.5">
       <c r="A18" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
@@ -1409,23 +1415,21 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="26" t="s">
-        <v>53</v>
-      </c>
+      <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="1:12" s="27" customFormat="1" ht="51">
+    <row r="19" spans="1:12" s="27" customFormat="1" ht="25.5">
       <c r="A19" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
@@ -1434,22 +1438,22 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="1:12" s="27" customFormat="1" ht="25.5">
+    <row r="20" spans="1:12" s="27" customFormat="1" ht="51">
       <c r="A20" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
@@ -1458,22 +1462,22 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12" s="27" customFormat="1" ht="38.25">
+    <row r="21" spans="1:12" s="27" customFormat="1" ht="25.5">
       <c r="A21" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
@@ -1482,22 +1486,22 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="1:12" s="27" customFormat="1" ht="51">
+    <row r="22" spans="1:12" s="27" customFormat="1" ht="38.25">
       <c r="A22" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24" t="s">
@@ -1506,22 +1510,22 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="1:12" s="27" customFormat="1" ht="25.5">
+    <row r="23" spans="1:12" s="27" customFormat="1" ht="51">
       <c r="A23" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24" t="s">
@@ -1530,22 +1534,22 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
     </row>
-    <row r="24" spans="1:12" s="27" customFormat="1" ht="38.25">
+    <row r="24" spans="1:12" s="27" customFormat="1" ht="25.5">
       <c r="A24" s="24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24" t="s">
@@ -1554,53 +1558,57 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="1:12" s="27" customFormat="1">
+    <row r="25" spans="1:12" s="27" customFormat="1" ht="38.25">
       <c r="A25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="H25" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="I25" s="26"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+    <row r="26" spans="1:12" s="27" customFormat="1">
+      <c r="A26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="17"/>
@@ -1613,16 +1621,18 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="22" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="17"/>
@@ -1631,10 +1641,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
@@ -1648,8 +1658,26 @@
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1686,7 +1714,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1695,39 +1723,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1737,24 +1765,24 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1764,57 +1792,57 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1824,57 +1852,57 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1884,35 +1912,35 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1922,101 +1950,101 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2026,57 +2054,57 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2086,57 +2114,57 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2146,123 +2174,123 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
         <v>138</v>
       </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" t="s">
         <v>144</v>
-      </c>
-      <c r="C51" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" t="s">
         <v>146</v>
-      </c>
-      <c r="C52" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
         <v>148</v>
-      </c>
-      <c r="C53" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
         <v>150</v>
-      </c>
-      <c r="C54" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
         <v>152</v>
-      </c>
-      <c r="C55" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
         <v>154</v>
-      </c>
-      <c r="C56" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2270,10 +2298,10 @@
         <v>38</v>
       </c>
       <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
         <v>157</v>
-      </c>
-      <c r="C59" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2281,10 +2309,10 @@
         <v>38</v>
       </c>
       <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
         <v>159</v>
-      </c>
-      <c r="C60" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2292,10 +2320,10 @@
         <v>38</v>
       </c>
       <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
         <v>161</v>
-      </c>
-      <c r="C61" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2330,25 +2358,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
